--- a/dbRetorno.xlsx
+++ b/dbRetorno.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 0025\Desktop\Mapa Caminhoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 0025\Desktop\Mapa CaminhoesRetorno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8826681-6107-4C95-9F73-A31AE48E7DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CE27CF-6B1E-4001-96A1-983F580B5A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13441" uniqueCount="6761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13510" uniqueCount="6763">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -20757,28 +20757,34 @@
     <t>ROBERTO</t>
   </si>
   <si>
-    <t>COMETA(BARAO DO RIO BRANCO</t>
-  </si>
-  <si>
-    <t>COMETA(BENI CARVALHO0</t>
-  </si>
-  <si>
-    <t>COMETA(TIBURCIO)</t>
-  </si>
-  <si>
-    <t>COMPREMAX (MISTER HALL)</t>
-  </si>
-  <si>
-    <t>FELIX- Retorno</t>
-  </si>
-  <si>
-    <t>LUAN -Retorno</t>
-  </si>
-  <si>
-    <t>LUAN- Retorno</t>
-  </si>
-  <si>
-    <t>EDSON- Retorno</t>
+    <t>AILTON</t>
+  </si>
+  <si>
+    <t>MERCANTIL SERV LAR</t>
+  </si>
+  <si>
+    <t>MERCADINHO SERRA GRANDE</t>
+  </si>
+  <si>
+    <t>MERCADINHO DA LOURA</t>
+  </si>
+  <si>
+    <t>-3.74376207</t>
+  </si>
+  <si>
+    <t>-38.64179021</t>
+  </si>
+  <si>
+    <t>-3.70991440</t>
+  </si>
+  <si>
+    <t>-38.46817373</t>
+  </si>
+  <si>
+    <t>-3.79165080</t>
+  </si>
+  <si>
+    <t>-38.61465125</t>
   </si>
 </sst>
 </file>
@@ -25807,10 +25813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3BFD8A-3599-407A-9626-08449CFF72EA}">
-  <dimension ref="A1:L1097"/>
+  <dimension ref="A1:L1104"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1095" sqref="K1095"/>
+    <sheetView topLeftCell="E147" workbookViewId="0">
+      <selection activeCell="D1099" sqref="D1099"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63992,8 +63998,163 @@
         <v>6746</v>
       </c>
     </row>
+    <row r="1095" spans="1:12">
+      <c r="A1095" s="7">
+        <v>11946</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>6355</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>6356</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>6357</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>6358</v>
+      </c>
+      <c r="J1095" t="s">
+        <v>3674</v>
+      </c>
+      <c r="K1095" t="s">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:12">
+      <c r="A1096" s="7">
+        <v>11047</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>3733</v>
+      </c>
+      <c r="J1096" t="s">
+        <v>3734</v>
+      </c>
+      <c r="K1096" t="s">
+        <v>3735</v>
+      </c>
+    </row>
     <row r="1097" spans="1:12">
-      <c r="J1097" s="1"/>
+      <c r="A1097" s="7">
+        <v>11032</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>6433</v>
+      </c>
+      <c r="J1097" s="1" t="s">
+        <v>6446</v>
+      </c>
+      <c r="K1097" t="s">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:12">
+      <c r="B1098" t="s">
+        <v>6570</v>
+      </c>
+      <c r="J1098" t="s">
+        <v>6571</v>
+      </c>
+      <c r="K1098" t="s">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:12">
+      <c r="A1099" s="7">
+        <v>11038</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>6573</v>
+      </c>
+      <c r="J1099" t="s">
+        <v>6574</v>
+      </c>
+      <c r="K1099" t="s">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:12">
+      <c r="A1100" s="7">
+        <v>10753</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1100" t="s">
+        <v>6743</v>
+      </c>
+      <c r="K1100" t="s">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:12">
+      <c r="A1101" s="7">
+        <v>12013</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>6742</v>
+      </c>
+      <c r="J1101" t="s">
+        <v>6745</v>
+      </c>
+      <c r="K1101" t="s">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:12">
+      <c r="A1102" s="7">
+        <v>1522</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>6756</v>
+      </c>
+      <c r="J1102" t="s">
+        <v>6757</v>
+      </c>
+      <c r="K1102" t="s">
+        <v>6758</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:12">
+      <c r="A1103" s="7">
+        <v>4754</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>6754</v>
+      </c>
+      <c r="J1103" t="s">
+        <v>6759</v>
+      </c>
+      <c r="K1103" t="s">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:12">
+      <c r="A1104" s="7">
+        <v>12119</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>6755</v>
+      </c>
+      <c r="J1104" t="s">
+        <v>6761</v>
+      </c>
+      <c r="K1104" t="s">
+        <v>6762</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -65239,8 +65400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B80FA02-35DC-4262-8E0F-94FBF297BE41}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65303,33 +65464,33 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B2" t="s">
-        <v>6752</v>
+        <v>6749</v>
       </c>
       <c r="C2" t="s">
-        <v>6435</v>
+        <v>6732</v>
       </c>
       <c r="D2">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F2" s="37">
-        <v>2488.1999999999998</v>
+        <v>814.15</v>
       </c>
       <c r="G2">
-        <v>125</v>
+        <v>35.6</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(D2,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.789045</v>
+        <v>-3.7429477</v>
       </c>
       <c r="I2" t="str">
         <f>VLOOKUP(D2,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5864455</v>
+        <v>-38.5599157</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6571</v>
@@ -65343,12 +65504,12 @@
       </c>
       <c r="M2" t="str">
         <f>VLOOKUP(D2,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B3" t="s">
         <v>6749</v>
@@ -65357,24 +65518,24 @@
         <v>6732</v>
       </c>
       <c r="D3">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F3" s="37">
-        <v>639.4</v>
+        <v>996</v>
       </c>
       <c r="G3">
-        <v>83.1</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(D3,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.730491</v>
+        <v>-3.7211932</v>
       </c>
       <c r="I3" t="str">
         <f>VLOOKUP(D3,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5771848</v>
+        <v>-38.5583364</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6571</v>
@@ -65388,12 +65549,12 @@
       </c>
       <c r="M3" t="str">
         <f>VLOOKUP(D3,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B4" t="s">
         <v>6752</v>
@@ -65402,24 +65563,24 @@
         <v>6435</v>
       </c>
       <c r="D4">
-        <v>455</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F4" s="37">
-        <v>1191.8</v>
+        <v>301</v>
       </c>
       <c r="G4">
-        <v>76.7</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(D4,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.762106</v>
+        <v>-3.8649743</v>
       </c>
       <c r="I4" t="str">
         <f>VLOOKUP(D4,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5819394</v>
+        <v>-38.5787598</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6571</v>
@@ -65438,33 +65599,33 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B5" t="s">
-        <v>6752</v>
+        <v>6747</v>
       </c>
       <c r="C5" t="s">
-        <v>6435</v>
+        <v>6431</v>
       </c>
       <c r="D5">
-        <v>709</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="F5" s="37">
-        <v>742.5</v>
+        <v>762</v>
       </c>
       <c r="G5">
-        <v>57.1</v>
+        <v>31.2</v>
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(D5,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.83265451</v>
+        <v>-3.7688869</v>
       </c>
       <c r="I5" t="str">
         <f>VLOOKUP(D5,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.58103395</v>
+        <v>-38.6231497</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>6571</v>
@@ -65478,12 +65639,12 @@
       </c>
       <c r="M5" t="str">
         <f>VLOOKUP(D5,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B6" t="s">
         <v>6747</v>
@@ -65492,24 +65653,24 @@
         <v>6431</v>
       </c>
       <c r="D6">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="37">
-        <v>960.4</v>
+        <v>810</v>
       </c>
       <c r="G6">
-        <v>154</v>
+        <v>61.2</v>
       </c>
       <c r="H6" t="str">
         <f>VLOOKUP(D6,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.77334061</v>
+        <v>-3.767533</v>
       </c>
       <c r="I6" t="str">
         <f>VLOOKUP(D6,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.62707738</v>
+        <v>-38.6248232</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>6571</v>
@@ -65523,38 +65684,38 @@
       </c>
       <c r="M6" t="str">
         <f>VLOOKUP(D6,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B7" t="s">
-        <v>6750</v>
+        <v>6747</v>
       </c>
       <c r="C7" t="s">
-        <v>6434</v>
+        <v>6431</v>
       </c>
       <c r="D7">
-        <v>838</v>
+        <v>719</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F7" s="37">
-        <v>1199.7</v>
+        <v>1495.6</v>
       </c>
       <c r="G7">
-        <v>51.5</v>
+        <v>57.2</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(D7,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7440036</v>
+        <v>-3.7594355</v>
       </c>
       <c r="I7" t="str">
         <f>VLOOKUP(D7,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5080673</v>
+        <v>-38.6163545</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>6571</v>
@@ -65568,38 +65729,38 @@
       </c>
       <c r="M7" t="str">
         <f>VLOOKUP(D7,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B8" t="s">
-        <v>6748</v>
+        <v>6752</v>
       </c>
       <c r="C8" t="s">
-        <v>6506</v>
+        <v>6435</v>
       </c>
       <c r="D8">
-        <v>874</v>
+        <v>815</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F8" s="37">
-        <v>1836.76</v>
+        <v>440.8</v>
       </c>
       <c r="G8">
-        <v>109.7</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H8" t="str">
         <f>VLOOKUP(D8,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.782635</v>
+        <v>-3.8575733</v>
       </c>
       <c r="I8" t="str">
         <f>VLOOKUP(D8,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5538401</v>
+        <v>-38.645753</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>6571</v>
@@ -65609,7 +65770,7 @@
       </c>
       <c r="L8" s="7">
         <f>VLOOKUP(C8,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="M8" t="str">
         <f>VLOOKUP(D8,horarios!B:G,6,0)</f>
@@ -65618,33 +65779,33 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B9" t="s">
-        <v>6750</v>
+        <v>6749</v>
       </c>
       <c r="C9" t="s">
-        <v>6434</v>
+        <v>6732</v>
       </c>
       <c r="D9">
-        <v>942</v>
+        <v>862</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F9" s="37">
-        <v>2972.35</v>
+        <v>947.5</v>
       </c>
       <c r="G9">
-        <v>174.5</v>
+        <v>39</v>
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(D9,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7407932</v>
+        <v>-3.7566112</v>
       </c>
       <c r="I9" t="str">
         <f>VLOOKUP(D9,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.516113</v>
+        <v>-38.6024185</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>6571</v>
@@ -65658,38 +65819,38 @@
       </c>
       <c r="M9" t="str">
         <f>VLOOKUP(D9,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B10" t="s">
-        <v>6750</v>
+        <v>6747</v>
       </c>
       <c r="C10" t="s">
-        <v>6434</v>
+        <v>6431</v>
       </c>
       <c r="D10">
-        <v>958</v>
+        <v>931</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F10" s="37">
-        <v>4473.54</v>
+        <v>579.20000000000005</v>
       </c>
       <c r="G10">
-        <v>205.6</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(D10,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7338116</v>
+        <v>-3.766361</v>
       </c>
       <c r="I10" t="str">
         <f>VLOOKUP(D10,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5136501</v>
+        <v>-38.6211393</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>6571</v>
@@ -65708,7 +65869,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B11" t="s">
         <v>6752</v>
@@ -65717,24 +65878,24 @@
         <v>6435</v>
       </c>
       <c r="D11">
-        <v>1004</v>
+        <v>1142</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="F11" s="37">
-        <v>2055.77</v>
+        <v>368.2</v>
       </c>
       <c r="G11">
-        <v>112.4</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(D11,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8009513</v>
+        <v>-3.846401</v>
       </c>
       <c r="I11" t="str">
         <f>VLOOKUP(D11,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.586656</v>
+        <v>-38.656205</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>6571</v>
@@ -65753,7 +65914,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B12" t="s">
         <v>6752</v>
@@ -65762,24 +65923,24 @@
         <v>6435</v>
       </c>
       <c r="D12">
-        <v>1011</v>
+        <v>1616</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="F12" s="37">
-        <v>1841.86</v>
+        <v>173.6</v>
       </c>
       <c r="G12">
-        <v>83.7</v>
+        <v>13.6</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(D12,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8819005</v>
+        <v>-3.8525403</v>
       </c>
       <c r="I12" t="str">
         <f>VLOOKUP(D12,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.62523</v>
+        <v>-38.6116109</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>6571</v>
@@ -65798,33 +65959,33 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B13" t="s">
-        <v>6748</v>
+        <v>6752</v>
       </c>
       <c r="C13" t="s">
-        <v>6506</v>
+        <v>6435</v>
       </c>
       <c r="D13">
-        <v>1034</v>
+        <v>1708</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="F13" s="37">
-        <v>1728.2</v>
+        <v>1974.6</v>
       </c>
       <c r="G13">
-        <v>113.1</v>
+        <v>64.2</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(D13,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.83055313</v>
+        <v>-3.8359504</v>
       </c>
       <c r="I13" t="str">
         <f>VLOOKUP(D13,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.56049735</v>
+        <v>-38.5950891</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>6571</v>
@@ -65834,7 +65995,7 @@
       </c>
       <c r="L13" s="7">
         <f>VLOOKUP(C13,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="M13" t="str">
         <f>VLOOKUP(D13,horarios!B:G,6,0)</f>
@@ -65843,33 +66004,33 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B14" t="s">
-        <v>6748</v>
+        <v>6752</v>
       </c>
       <c r="C14" t="s">
-        <v>6506</v>
+        <v>6435</v>
       </c>
       <c r="D14">
-        <v>1043</v>
+        <v>1777</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="F14" s="37">
-        <v>1340.02</v>
+        <v>220.75</v>
       </c>
       <c r="G14">
-        <v>74.2</v>
+        <v>23.6</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(D14,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.787502</v>
+        <v>-3.8463687</v>
       </c>
       <c r="I14" t="str">
         <f>VLOOKUP(D14,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.547114</v>
+        <v>-38.6555481</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>6571</v>
@@ -65879,7 +66040,7 @@
       </c>
       <c r="L14" s="7">
         <f>VLOOKUP(C14,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="M14" t="str">
         <f>VLOOKUP(D14,horarios!B:G,6,0)</f>
@@ -65888,33 +66049,33 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B15" t="s">
-        <v>6748</v>
+        <v>6752</v>
       </c>
       <c r="C15" t="s">
-        <v>6506</v>
+        <v>6435</v>
       </c>
       <c r="D15">
-        <v>1049</v>
+        <v>1873</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="F15" s="37">
-        <v>653.13</v>
+        <v>173.9</v>
       </c>
       <c r="G15">
-        <v>23.9</v>
+        <v>13.9</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(D15,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7955137</v>
+        <v>-3.8219527</v>
       </c>
       <c r="I15" t="str">
         <f>VLOOKUP(D15,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4901664</v>
+        <v>-38.6279053</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>6571</v>
@@ -65924,7 +66085,7 @@
       </c>
       <c r="L15" s="7">
         <f>VLOOKUP(C15,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="M15" t="str">
         <f>VLOOKUP(D15,horarios!B:G,6,0)</f>
@@ -65933,33 +66094,33 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B16" t="s">
-        <v>6750</v>
+        <v>6752</v>
       </c>
       <c r="C16" t="s">
-        <v>6434</v>
+        <v>6435</v>
       </c>
       <c r="D16">
-        <v>1058</v>
+        <v>1998</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="F16" s="37">
-        <v>2571.83</v>
+        <v>4615</v>
       </c>
       <c r="G16">
-        <v>97.5</v>
+        <v>294.8</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(D16,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7344387</v>
+        <v>-3.8775392</v>
       </c>
       <c r="I16" t="str">
         <f>VLOOKUP(D16,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4922603</v>
+        <v>-38.6087159</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>6571</v>
@@ -65973,38 +66134,38 @@
       </c>
       <c r="M16" t="str">
         <f>VLOOKUP(D16,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B17" t="s">
-        <v>6749</v>
+        <v>6747</v>
       </c>
       <c r="C17" t="s">
-        <v>6732</v>
+        <v>6431</v>
       </c>
       <c r="D17">
-        <v>1226</v>
+        <v>2207</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="F17" s="37">
-        <v>1054.58</v>
+        <v>491.1</v>
       </c>
       <c r="G17">
-        <v>79.3</v>
+        <v>56.2</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(D17,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7123457</v>
+        <v>-3.7583253</v>
       </c>
       <c r="I17" t="str">
         <f>VLOOKUP(D17,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5589927</v>
+        <v>-38.6354708</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>6571</v>
@@ -66023,33 +66184,33 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B18" t="s">
-        <v>6752</v>
+        <v>6747</v>
       </c>
       <c r="C18" t="s">
-        <v>6435</v>
+        <v>6431</v>
       </c>
       <c r="D18">
-        <v>2126</v>
+        <v>2279</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F18" s="37">
-        <v>1192.4000000000001</v>
+        <v>1279.2</v>
       </c>
       <c r="G18">
-        <v>118.6</v>
+        <v>46.2</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(D18,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.80892581</v>
+        <v>-3.758694</v>
       </c>
       <c r="I18" t="str">
         <f>VLOOKUP(D18,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.62755341</v>
+        <v>-38.625415</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>6571</v>
@@ -66068,7 +66229,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B19" t="s">
         <v>6747</v>
@@ -66077,24 +66238,24 @@
         <v>6431</v>
       </c>
       <c r="D19">
-        <v>2247</v>
+        <v>2337</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F19" s="37">
-        <v>138.19999999999999</v>
+        <v>189.75</v>
       </c>
       <c r="G19">
-        <v>17.600000000000001</v>
+        <v>31.1</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(D19,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7449865</v>
+        <v>-3.754912</v>
       </c>
       <c r="I19" t="str">
         <f>VLOOKUP(D19,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6498108</v>
+        <v>-38.6618811</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>6571</v>
@@ -66113,7 +66274,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B20" t="s">
         <v>6747</v>
@@ -66122,24 +66283,24 @@
         <v>6431</v>
       </c>
       <c r="D20">
-        <v>2417</v>
+        <v>2365</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F20" s="37">
-        <v>159.6</v>
+        <v>1312.8</v>
       </c>
       <c r="G20">
-        <v>19.399999999999999</v>
+        <v>52.8</v>
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(D20,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7419934</v>
+        <v>-3.741646</v>
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP(D20,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.641264</v>
+        <v>-38.659527</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>6571</v>
@@ -66158,33 +66319,33 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B21" t="s">
-        <v>6747</v>
+        <v>6753</v>
       </c>
       <c r="C21" t="s">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="D21">
-        <v>4089</v>
+        <v>2415</v>
       </c>
       <c r="E21" t="s">
-        <v>549</v>
+        <v>337</v>
       </c>
       <c r="F21" s="37">
-        <v>552.4</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="G21">
-        <v>50.5</v>
+        <v>27.7</v>
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP(D21,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7666193</v>
+        <v>-3.8508378</v>
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP(D21,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6538536</v>
+        <v>-38.5063457</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>6571</v>
@@ -66203,33 +66364,33 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B22" t="s">
-        <v>6747</v>
+        <v>6753</v>
       </c>
       <c r="C22" t="s">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="D22">
-        <v>4381</v>
+        <v>3078</v>
       </c>
       <c r="E22" t="s">
-        <v>599</v>
+        <v>400</v>
       </c>
       <c r="F22" s="37">
-        <v>1540.6</v>
+        <v>1267</v>
       </c>
       <c r="G22">
-        <v>121.6</v>
+        <v>76.2</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(D22,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.72905976</v>
+        <v>-3.8169208</v>
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP(D22,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.65588134</v>
+        <v>-38.5316105</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>6571</v>
@@ -66248,7 +66409,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B23" t="s">
         <v>6750</v>
@@ -66257,24 +66418,24 @@
         <v>6434</v>
       </c>
       <c r="D23">
-        <v>4522</v>
+        <v>3141</v>
       </c>
       <c r="E23" t="s">
-        <v>616</v>
+        <v>405</v>
       </c>
       <c r="F23" s="37">
-        <v>1338.48</v>
+        <v>248.4</v>
       </c>
       <c r="G23">
-        <v>76</v>
+        <v>7.2</v>
       </c>
       <c r="H23" t="str">
         <f>VLOOKUP(D23,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7354447</v>
+        <v>-3.7881406</v>
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP(D23,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4816158</v>
+        <v>-38.4676257</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>6571</v>
@@ -66293,33 +66454,33 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B24" t="s">
-        <v>6747</v>
+        <v>6753</v>
       </c>
       <c r="C24" t="s">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="D24">
-        <v>9295</v>
+        <v>3166</v>
       </c>
       <c r="E24" t="s">
-        <v>700</v>
+        <v>409</v>
       </c>
       <c r="F24" s="37">
-        <v>811.45</v>
+        <v>1120.76</v>
       </c>
       <c r="G24">
-        <v>37.799999999999997</v>
+        <v>44.6</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP(D24,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.67554656</v>
+        <v>-3.8071766</v>
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP(D24,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.66738313</v>
+        <v>-38.555096</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>6571</v>
@@ -66333,38 +66494,38 @@
       </c>
       <c r="M24" t="str">
         <f>VLOOKUP(D24,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B25" t="s">
-        <v>6749</v>
+        <v>6747</v>
       </c>
       <c r="C25" t="s">
-        <v>6732</v>
+        <v>6431</v>
       </c>
       <c r="D25">
-        <v>9341</v>
+        <v>3259</v>
       </c>
       <c r="E25" t="s">
-        <v>722</v>
+        <v>424</v>
       </c>
       <c r="F25" s="37">
-        <v>1460.61</v>
+        <v>240.6</v>
       </c>
       <c r="G25">
-        <v>59.3</v>
+        <v>37.9</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP(D25,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7532492</v>
+        <v>-3.759452</v>
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP(D25,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5276962</v>
+        <v>-38.6293862</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>6571</v>
@@ -66383,33 +66544,33 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B26" t="s">
-        <v>6748</v>
+        <v>6752</v>
       </c>
       <c r="C26" t="s">
-        <v>6506</v>
+        <v>6435</v>
       </c>
       <c r="D26">
-        <v>9345</v>
+        <v>3705</v>
       </c>
       <c r="E26" t="s">
-        <v>723</v>
+        <v>488</v>
       </c>
       <c r="F26" s="37">
-        <v>4500.51</v>
+        <v>218.2</v>
       </c>
       <c r="G26">
-        <v>214.3</v>
+        <v>9.4</v>
       </c>
       <c r="H26" t="str">
         <f>VLOOKUP(D26,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.79182527</v>
+        <v>-3.8754221</v>
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP(D26,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5671401</v>
+        <v>-38.5915102</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>6571</v>
@@ -66419,7 +66580,7 @@
       </c>
       <c r="L26" s="7">
         <f>VLOOKUP(C26,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="M26" t="str">
         <f>VLOOKUP(D26,horarios!B:G,6,0)</f>
@@ -66428,33 +66589,33 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B27" t="s">
-        <v>6748</v>
+        <v>6752</v>
       </c>
       <c r="C27" t="s">
-        <v>6506</v>
+        <v>6435</v>
       </c>
       <c r="D27">
-        <v>9346</v>
+        <v>3765</v>
       </c>
       <c r="E27" t="s">
-        <v>724</v>
+        <v>497</v>
       </c>
       <c r="F27" s="37">
-        <v>1333.3</v>
+        <v>550.6</v>
       </c>
       <c r="G27">
-        <v>65.5</v>
+        <v>29.2</v>
       </c>
       <c r="H27" t="str">
         <f>VLOOKUP(D27,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7888981</v>
+        <v>-3.8548937</v>
       </c>
       <c r="I27" t="str">
         <f>VLOOKUP(D27,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4759777</v>
+        <v>-38.5789869</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>6571</v>
@@ -66464,42 +66625,42 @@
       </c>
       <c r="L27" s="7">
         <f>VLOOKUP(C27,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="M27" t="str">
         <f>VLOOKUP(D27,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B28" t="s">
-        <v>6748</v>
+        <v>6750</v>
       </c>
       <c r="C28" t="s">
-        <v>6506</v>
+        <v>6434</v>
       </c>
       <c r="D28">
-        <v>9347</v>
+        <v>4754</v>
       </c>
       <c r="E28" t="s">
-        <v>725</v>
+        <v>6754</v>
       </c>
       <c r="F28" s="37">
-        <v>4436.66</v>
+        <v>755.4</v>
       </c>
       <c r="G28">
-        <v>194.2</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="H28" t="str">
         <f>VLOOKUP(D28,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.8795207</v>
+        <v>-3.70991440</v>
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP(D28,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.4613795</v>
+        <v>-38.46817373</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>6571</v>
@@ -66509,16 +66670,15 @@
       </c>
       <c r="L28" s="7">
         <f>VLOOKUP(C28,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
-      </c>
-      <c r="M28" t="str">
-        <f>VLOOKUP(D28,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>1590</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6727</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B29" t="s">
         <v>6747</v>
@@ -66527,24 +66687,24 @@
         <v>6431</v>
       </c>
       <c r="D29">
-        <v>9595</v>
+        <v>4760</v>
       </c>
       <c r="E29" t="s">
-        <v>794</v>
+        <v>651</v>
       </c>
       <c r="F29" s="37">
-        <v>530.6</v>
+        <v>140.4</v>
       </c>
       <c r="G29">
-        <v>81</v>
+        <v>32.4</v>
       </c>
       <c r="H29" t="str">
         <f>VLOOKUP(D29,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.736915</v>
+        <v>-3.7747928</v>
       </c>
       <c r="I29" t="str">
         <f>VLOOKUP(D29,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6502819</v>
+        <v>-38.6226301</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>6571</v>
@@ -66563,33 +66723,33 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B30" t="s">
-        <v>6747</v>
+        <v>6752</v>
       </c>
       <c r="C30" t="s">
-        <v>6431</v>
+        <v>6435</v>
       </c>
       <c r="D30">
-        <v>9598</v>
+        <v>4965</v>
       </c>
       <c r="E30" t="s">
-        <v>797</v>
+        <v>679</v>
       </c>
       <c r="F30" s="37">
-        <v>333.7</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="G30">
-        <v>37.6</v>
+        <v>13.7</v>
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP(D30,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7448789</v>
+        <v>-3.8811139</v>
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP(D30,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.6495637</v>
+        <v>-38.6756829</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>6571</v>
@@ -66608,33 +66768,33 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B31" t="s">
-        <v>6748</v>
+        <v>6753</v>
       </c>
       <c r="C31" t="s">
-        <v>6506</v>
+        <v>6432</v>
       </c>
       <c r="D31">
-        <v>9602</v>
+        <v>5158</v>
       </c>
       <c r="E31" t="s">
-        <v>799</v>
+        <v>691</v>
       </c>
       <c r="F31" s="37">
-        <v>1573.4</v>
+        <v>655.1</v>
       </c>
       <c r="G31">
-        <v>84.6</v>
+        <v>39</v>
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP(D31,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.79093331</v>
+        <v>-3.8090825</v>
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP(D31,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.53740405</v>
+        <v>-38.524932</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>6571</v>
@@ -66644,7 +66804,7 @@
       </c>
       <c r="L31" s="7">
         <f>VLOOKUP(C31,pesoCaminhao!C:G,5,0)</f>
-        <v>4900</v>
+        <v>1590</v>
       </c>
       <c r="M31" t="str">
         <f>VLOOKUP(D31,horarios!B:G,6,0)</f>
@@ -66653,33 +66813,33 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B32" t="s">
-        <v>6749</v>
+        <v>6748</v>
       </c>
       <c r="C32" t="s">
-        <v>6732</v>
+        <v>6436</v>
       </c>
       <c r="D32">
-        <v>9622</v>
+        <v>9322</v>
       </c>
       <c r="E32" t="s">
-        <v>809</v>
+        <v>712</v>
       </c>
       <c r="F32" s="37">
-        <v>3414.43</v>
+        <v>427.5</v>
       </c>
       <c r="G32">
-        <v>169.3</v>
+        <v>26.6</v>
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP(D32,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7570117</v>
+        <v>-3.7752939</v>
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP(D32,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5530651</v>
+        <v>-38.6071932</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>6571</v>
@@ -66698,33 +66858,33 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B33" t="s">
-        <v>6747</v>
+        <v>6750</v>
       </c>
       <c r="C33" t="s">
-        <v>6431</v>
+        <v>6434</v>
       </c>
       <c r="D33">
-        <v>11163</v>
+        <v>9597</v>
       </c>
       <c r="E33" t="s">
-        <v>889</v>
+        <v>796</v>
       </c>
       <c r="F33" s="37">
-        <v>1463.2</v>
+        <v>275.7</v>
       </c>
       <c r="G33">
-        <v>116.1</v>
+        <v>24.9</v>
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP(D33,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.67322246</v>
+        <v>-3.7603291</v>
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP(D33,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.67026304</v>
+        <v>-38.5423981</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>6571</v>
@@ -66743,33 +66903,33 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B34" t="s">
-        <v>6752</v>
+        <v>6748</v>
       </c>
       <c r="C34" t="s">
-        <v>6435</v>
+        <v>6436</v>
       </c>
       <c r="D34">
-        <v>11513</v>
+        <v>10934</v>
       </c>
       <c r="E34" t="s">
-        <v>945</v>
+        <v>836</v>
       </c>
       <c r="F34" s="37">
-        <v>370.4</v>
+        <v>231.4</v>
       </c>
       <c r="G34">
-        <v>37.9</v>
+        <v>11.6</v>
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP(D34,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.80683521</v>
+        <v>-3.7744146</v>
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP(D34,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.62994815</v>
+        <v>-38.6152931</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>6571</v>
@@ -66783,38 +66943,38 @@
       </c>
       <c r="M34" t="str">
         <f>VLOOKUP(D34,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B35" t="s">
-        <v>6747</v>
+        <v>6753</v>
       </c>
       <c r="C35" t="s">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="D35">
-        <v>11844</v>
+        <v>10977</v>
       </c>
       <c r="E35" t="s">
-        <v>1014</v>
+        <v>858</v>
       </c>
       <c r="F35" s="37">
-        <v>1520.2</v>
+        <v>784.17</v>
       </c>
       <c r="G35">
-        <v>120.3</v>
+        <v>31.5</v>
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP(D35,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.76944093</v>
+        <v>-3.80290818</v>
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP(D35,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.65433696</v>
+        <v>-38.49478307</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>6571</v>
@@ -66828,38 +66988,38 @@
       </c>
       <c r="M35" t="str">
         <f>VLOOKUP(D35,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B36" t="s">
-        <v>6749</v>
+        <v>6747</v>
       </c>
       <c r="C36" t="s">
-        <v>6732</v>
+        <v>6431</v>
       </c>
       <c r="D36">
-        <v>11912</v>
+        <v>11163</v>
       </c>
       <c r="E36" t="s">
-        <v>1028</v>
+        <v>889</v>
       </c>
       <c r="F36" s="37">
-        <v>494.02</v>
+        <v>1203.9000000000001</v>
       </c>
       <c r="G36">
-        <v>16.8</v>
+        <v>37.6</v>
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP(D36,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.73839532</v>
+        <v>-3.67322246</v>
       </c>
       <c r="I36" t="str">
         <f>VLOOKUP(D36,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.53222215</v>
+        <v>-38.67026304</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>6571</v>
@@ -66878,33 +67038,33 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B37" t="s">
-        <v>6757</v>
+        <v>6748</v>
       </c>
       <c r="C37" t="s">
-        <v>6732</v>
+        <v>6436</v>
       </c>
       <c r="D37">
-        <v>11775</v>
+        <v>11203</v>
       </c>
       <c r="E37" t="s">
-        <v>6753</v>
+        <v>897</v>
       </c>
       <c r="F37" s="37">
-        <v>1788.42</v>
+        <v>507</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP(D37,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.73996838</v>
+        <v>-3.78267443</v>
       </c>
       <c r="I37" t="str">
         <f>VLOOKUP(D37,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.53237147</v>
+        <v>-38.60153491</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>6571</v>
@@ -66923,33 +67083,33 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B38" t="s">
-        <v>6758</v>
+        <v>6750</v>
       </c>
       <c r="C38" t="s">
         <v>6434</v>
       </c>
       <c r="D38">
-        <v>9340</v>
+        <v>11455</v>
       </c>
       <c r="E38" t="s">
-        <v>6754</v>
+        <v>941</v>
       </c>
       <c r="F38" s="37">
-        <v>2403.12</v>
+        <v>2912.4</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>93.7</v>
       </c>
       <c r="H38" t="str">
         <f>VLOOKUP(D38,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.745611</v>
+        <v>-3.7451759</v>
       </c>
       <c r="I38" t="str">
         <f>VLOOKUP(D38,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.495747</v>
+        <v>-38.5402234</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>6571</v>
@@ -66968,33 +67128,33 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B39" t="s">
-        <v>6759</v>
+        <v>6753</v>
       </c>
       <c r="C39" t="s">
-        <v>6434</v>
+        <v>6432</v>
       </c>
       <c r="D39">
-        <v>4029</v>
+        <v>11851</v>
       </c>
       <c r="E39" t="s">
-        <v>6755</v>
+        <v>1016</v>
       </c>
       <c r="F39" s="37">
-        <v>2320.65</v>
+        <v>714.75</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="H39" t="str">
         <f>VLOOKUP(D39,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7411822</v>
+        <v>-3.82637289</v>
       </c>
       <c r="I39" t="str">
         <f>VLOOKUP(D39,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5041525</v>
+        <v>-38.47433135</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>6571</v>
@@ -67008,38 +67168,38 @@
       </c>
       <c r="M39" t="str">
         <f>VLOOKUP(D39,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B40" t="s">
-        <v>6760</v>
+        <v>6748</v>
       </c>
       <c r="C40" t="s">
-        <v>6431</v>
+        <v>6436</v>
       </c>
       <c r="D40">
-        <v>151</v>
+        <v>11895</v>
       </c>
       <c r="E40" t="s">
-        <v>6756</v>
+        <v>1022</v>
       </c>
       <c r="F40" s="37">
-        <v>1555</v>
+        <v>1680.06</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="H40" t="str">
         <f>VLOOKUP(D40,COORDENADAS!A:J,10,FALSE)</f>
-        <v>-3.7392121</v>
+        <v>-3.89368547</v>
       </c>
       <c r="I40" t="str">
         <f>VLOOKUP(D40,COORDENADAS!A:K,11,FALSE)</f>
-        <v>-38.5924565</v>
+        <v>-38.51477265</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>6571</v>
@@ -67053,54 +67213,277 @@
       </c>
       <c r="M40" t="str">
         <f>VLOOKUP(D40,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4">
+        <v>45785</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6748</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6436</v>
+      </c>
+      <c r="D41">
+        <v>11896</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F41" s="37">
+        <v>932.01</v>
+      </c>
+      <c r="G41">
+        <v>36.5</v>
+      </c>
+      <c r="H41" t="str">
+        <f>VLOOKUP(D41,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.90694584</v>
+      </c>
+      <c r="I41" t="str">
+        <f>VLOOKUP(D41,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.50743777</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="L41" s="7">
+        <f>VLOOKUP(C41,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="M41" t="str">
+        <f>VLOOKUP(D41,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4">
+        <v>45785</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6753</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6432</v>
+      </c>
+      <c r="D42">
+        <v>11898</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F42" s="37">
+        <v>2318.2800000000002</v>
+      </c>
+      <c r="G42">
+        <v>94.2</v>
+      </c>
+      <c r="H42" t="str">
+        <f>VLOOKUP(D42,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.8489518</v>
+      </c>
+      <c r="I42" t="str">
+        <f>VLOOKUP(D42,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.51200331</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="L42" s="7">
+        <f>VLOOKUP(C42,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="M42" t="str">
+        <f>VLOOKUP(D42,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4">
+        <v>45785</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6753</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6432</v>
+      </c>
+      <c r="D43">
+        <v>11899</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F43" s="37">
+        <v>690.11</v>
+      </c>
+      <c r="G43">
+        <v>27.1</v>
+      </c>
+      <c r="H43" t="str">
+        <f>VLOOKUP(D43,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.82635425</v>
+      </c>
+      <c r="I43" t="str">
+        <f>VLOOKUP(D43,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.47426069</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="L43" s="7">
+        <f>VLOOKUP(C43,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="M43" t="str">
+        <f>VLOOKUP(D43,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4">
+        <v>45785</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6747</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6431</v>
+      </c>
+      <c r="D44">
+        <v>12119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6755</v>
+      </c>
+      <c r="F44" s="37">
+        <v>231.6</v>
+      </c>
+      <c r="G44">
+        <v>25.2</v>
+      </c>
+      <c r="H44" t="str">
+        <f>VLOOKUP(D44,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.79165080</v>
+      </c>
+      <c r="I44" t="str">
+        <f>VLOOKUP(D44,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.61465125</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="L44" s="7">
+        <f>VLOOKUP(C44,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="M44" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4">
+        <v>45785</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6747</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6431</v>
+      </c>
+      <c r="D45">
+        <v>4089</v>
+      </c>
+      <c r="E45" t="s">
+        <v>549</v>
+      </c>
+      <c r="F45" s="37">
+        <v>548.08000000000004</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="str">
+        <f>VLOOKUP(D45,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7666193</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP(D45,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.6538536</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="L45" s="7">
+        <f>VLOOKUP(C45,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="M45" t="str">
+        <f>VLOOKUP(D45,horarios!B:G,6,0)</f>
         <v>DIURNO</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="F41" s="37"/>
-      <c r="G41"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="F42" s="37"/>
-      <c r="G42"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="F43" s="37"/>
-      <c r="G43"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="F44" s="37"/>
-      <c r="G44"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="F45" s="37"/>
-      <c r="G45"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="2"/>
+      <c r="A46" s="4">
+        <v>45785</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>6747</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6431</v>
+      </c>
+      <c r="D46">
+        <v>4293</v>
+      </c>
+      <c r="E46" t="s">
+        <v>590</v>
+      </c>
+      <c r="F46" s="36">
+        <v>875.38</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" t="str">
+        <f>VLOOKUP(D46,COORDENADAS!A:J,10,FALSE)</f>
+        <v>-3.7347353</v>
+      </c>
+      <c r="I46" t="str">
+        <f>VLOOKUP(D46,COORDENADAS!A:K,11,FALSE)</f>
+        <v>-38.6595839</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>6571</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>6572</v>
+      </c>
+      <c r="L46" s="7">
+        <f>VLOOKUP(C46,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="M46" t="str">
+        <f>VLOOKUP(D46,horarios!B:G,6,0)</f>
+        <v>MANHA</v>
+      </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="4"/>

--- a/dbRetorno.xlsx
+++ b/dbRetorno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 0025\Desktop\Mapa CaminhoesRetorno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96758BF-BCED-44F0-A58E-3CA1AB957FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67B368A-E280-4B0B-92C9-7361FFC42E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1923E71E-4F0E-45F0-9912-24D797C5AE24}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9297" uniqueCount="3665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9309" uniqueCount="3666">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -11027,9 +11027,6 @@
     <t>EDSON</t>
   </si>
   <si>
-    <t>ADAILSON</t>
-  </si>
-  <si>
     <t>FELIX</t>
   </si>
   <si>
@@ -11490,6 +11487,12 @@
   </si>
   <si>
     <t>-40.967042</t>
+  </si>
+  <si>
+    <t>WEMINSON</t>
+  </si>
+  <si>
+    <t>AGENDAMENTO - BARATÃO</t>
   </si>
 </sst>
 </file>
@@ -31731,13 +31734,13 @@
         <v>1522</v>
       </c>
       <c r="B1095" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C1095" t="s">
         <v>3517</v>
       </c>
-      <c r="C1095" t="s">
+      <c r="D1095" t="s">
         <v>3518</v>
-      </c>
-      <c r="D1095" t="s">
-        <v>3519</v>
       </c>
     </row>
     <row r="1096" spans="1:4">
@@ -31745,13 +31748,13 @@
         <v>4754</v>
       </c>
       <c r="B1096" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="C1096" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D1096" t="s">
         <v>3520</v>
-      </c>
-      <c r="D1096" t="s">
-        <v>3521</v>
       </c>
     </row>
     <row r="1097" spans="1:4">
@@ -31759,13 +31762,13 @@
         <v>12119</v>
       </c>
       <c r="B1097" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="C1097" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D1097" t="s">
         <v>3522</v>
-      </c>
-      <c r="D1097" t="s">
-        <v>3523</v>
       </c>
     </row>
     <row r="1098" spans="1:4">
@@ -31773,13 +31776,13 @@
         <v>12123</v>
       </c>
       <c r="B1098" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C1098" t="s">
         <v>3529</v>
       </c>
-      <c r="C1098" t="s">
+      <c r="D1098" t="s">
         <v>3530</v>
-      </c>
-      <c r="D1098" t="s">
-        <v>3531</v>
       </c>
     </row>
     <row r="1099" spans="1:4">
@@ -31787,13 +31790,13 @@
         <v>12144</v>
       </c>
       <c r="B1099" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C1099" t="s">
         <v>3532</v>
       </c>
-      <c r="C1099" t="s">
+      <c r="D1099" t="s">
         <v>3533</v>
-      </c>
-      <c r="D1099" t="s">
-        <v>3534</v>
       </c>
     </row>
     <row r="1100" spans="1:4">
@@ -31801,13 +31804,13 @@
         <v>12126</v>
       </c>
       <c r="B1100" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="C1100" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D1100" t="s">
         <v>3535</v>
-      </c>
-      <c r="D1100" t="s">
-        <v>3536</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -31815,13 +31818,13 @@
         <v>12135</v>
       </c>
       <c r="B1101" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="C1101" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D1101" t="s">
         <v>3537</v>
-      </c>
-      <c r="D1101" t="s">
-        <v>3538</v>
       </c>
     </row>
     <row r="1102" spans="1:4">
@@ -31829,13 +31832,13 @@
         <v>12136</v>
       </c>
       <c r="B1102" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C1102" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D1102" t="s">
         <v>3539</v>
-      </c>
-      <c r="D1102" t="s">
-        <v>3540</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -31843,13 +31846,13 @@
         <v>12137</v>
       </c>
       <c r="B1103" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="C1103" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D1103" t="s">
         <v>3541</v>
-      </c>
-      <c r="D1103" t="s">
-        <v>3542</v>
       </c>
     </row>
     <row r="1104" spans="1:4">
@@ -31857,13 +31860,13 @@
         <v>1541</v>
       </c>
       <c r="B1104" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="C1104" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D1104" t="s">
         <v>3543</v>
-      </c>
-      <c r="D1104" t="s">
-        <v>3544</v>
       </c>
     </row>
     <row r="1105" spans="1:4">
@@ -31871,13 +31874,13 @@
         <v>12124</v>
       </c>
       <c r="B1105" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="C1105" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D1105" t="s">
         <v>3545</v>
-      </c>
-      <c r="D1105" t="s">
-        <v>3546</v>
       </c>
     </row>
     <row r="1106" spans="1:4">
@@ -31885,13 +31888,13 @@
         <v>12158</v>
       </c>
       <c r="B1106" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C1106" t="s">
         <v>3547</v>
       </c>
-      <c r="C1106" t="s">
+      <c r="D1106" t="s">
         <v>3548</v>
-      </c>
-      <c r="D1106" t="s">
-        <v>3549</v>
       </c>
     </row>
     <row r="1107" spans="1:4">
@@ -31899,13 +31902,13 @@
         <v>12157</v>
       </c>
       <c r="B1107" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C1107" t="s">
         <v>3554</v>
       </c>
-      <c r="C1107" t="s">
+      <c r="D1107" t="s">
         <v>3555</v>
-      </c>
-      <c r="D1107" t="s">
-        <v>3556</v>
       </c>
     </row>
     <row r="1108" spans="1:4">
@@ -47215,13 +47218,13 @@
         <v>1522</v>
       </c>
       <c r="B2201" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C2201" t="s">
         <v>3517</v>
       </c>
-      <c r="C2201" t="s">
+      <c r="D2201" t="s">
         <v>3518</v>
-      </c>
-      <c r="D2201" t="s">
-        <v>3519</v>
       </c>
     </row>
     <row r="2202" spans="1:4">
@@ -47229,13 +47232,13 @@
         <v>4754</v>
       </c>
       <c r="B2202" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="C2202" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D2202" t="s">
         <v>3520</v>
-      </c>
-      <c r="D2202" t="s">
-        <v>3521</v>
       </c>
     </row>
     <row r="2203" spans="1:4">
@@ -47243,13 +47246,13 @@
         <v>12119</v>
       </c>
       <c r="B2203" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="C2203" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D2203" t="s">
         <v>3522</v>
-      </c>
-      <c r="D2203" t="s">
-        <v>3523</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -47257,13 +47260,13 @@
         <v>12123</v>
       </c>
       <c r="B2204" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2204" t="s">
         <v>3529</v>
       </c>
-      <c r="C2204" t="s">
+      <c r="D2204" t="s">
         <v>3530</v>
-      </c>
-      <c r="D2204" t="s">
-        <v>3531</v>
       </c>
     </row>
     <row r="2205" spans="1:4">
@@ -47271,13 +47274,13 @@
         <v>12144</v>
       </c>
       <c r="B2205" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C2205" t="s">
         <v>3532</v>
       </c>
-      <c r="C2205" t="s">
+      <c r="D2205" t="s">
         <v>3533</v>
-      </c>
-      <c r="D2205" t="s">
-        <v>3534</v>
       </c>
     </row>
     <row r="2206" spans="1:4">
@@ -47285,13 +47288,13 @@
         <v>12126</v>
       </c>
       <c r="B2206" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="C2206" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D2206" t="s">
         <v>3535</v>
-      </c>
-      <c r="D2206" t="s">
-        <v>3536</v>
       </c>
     </row>
     <row r="2207" spans="1:4">
@@ -47299,13 +47302,13 @@
         <v>12135</v>
       </c>
       <c r="B2207" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="C2207" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D2207" t="s">
         <v>3537</v>
-      </c>
-      <c r="D2207" t="s">
-        <v>3538</v>
       </c>
     </row>
     <row r="2208" spans="1:4">
@@ -47313,13 +47316,13 @@
         <v>12136</v>
       </c>
       <c r="B2208" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C2208" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D2208" t="s">
         <v>3539</v>
-      </c>
-      <c r="D2208" t="s">
-        <v>3540</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -47327,13 +47330,13 @@
         <v>12137</v>
       </c>
       <c r="B2209" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="C2209" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D2209" t="s">
         <v>3541</v>
-      </c>
-      <c r="D2209" t="s">
-        <v>3542</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -47341,13 +47344,13 @@
         <v>1541</v>
       </c>
       <c r="B2210" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="C2210" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D2210" t="s">
         <v>3543</v>
-      </c>
-      <c r="D2210" t="s">
-        <v>3544</v>
       </c>
     </row>
     <row r="2211" spans="1:4">
@@ -47355,13 +47358,13 @@
         <v>12124</v>
       </c>
       <c r="B2211" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="C2211" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D2211" t="s">
         <v>3545</v>
-      </c>
-      <c r="D2211" t="s">
-        <v>3546</v>
       </c>
     </row>
     <row r="2212" spans="1:4">
@@ -47369,13 +47372,13 @@
         <v>12158</v>
       </c>
       <c r="B2212" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C2212" t="s">
         <v>3547</v>
       </c>
-      <c r="C2212" t="s">
+      <c r="D2212" t="s">
         <v>3548</v>
-      </c>
-      <c r="D2212" t="s">
-        <v>3549</v>
       </c>
     </row>
     <row r="2213" spans="1:4">
@@ -47383,13 +47386,13 @@
         <v>247</v>
       </c>
       <c r="B2213" t="s">
+        <v>3556</v>
+      </c>
+      <c r="C2213" t="s">
         <v>3557</v>
       </c>
-      <c r="C2213" t="s">
+      <c r="D2213" t="s">
         <v>3558</v>
-      </c>
-      <c r="D2213" t="s">
-        <v>3559</v>
       </c>
     </row>
     <row r="2214" spans="1:4">
@@ -47397,13 +47400,13 @@
         <v>447</v>
       </c>
       <c r="B2214" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="C2214" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D2214" t="s">
         <v>3560</v>
-      </c>
-      <c r="D2214" t="s">
-        <v>3561</v>
       </c>
     </row>
     <row r="2215" spans="1:4">
@@ -47411,13 +47414,13 @@
         <v>1222</v>
       </c>
       <c r="B2215" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C2215" t="s">
         <v>3562</v>
       </c>
-      <c r="C2215" t="s">
+      <c r="D2215" t="s">
         <v>3563</v>
-      </c>
-      <c r="D2215" t="s">
-        <v>3564</v>
       </c>
     </row>
     <row r="2216" spans="1:4">
@@ -47425,13 +47428,13 @@
         <v>1454</v>
       </c>
       <c r="B2216" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C2216" t="s">
         <v>3565</v>
       </c>
-      <c r="C2216" t="s">
+      <c r="D2216" t="s">
         <v>3566</v>
-      </c>
-      <c r="D2216" t="s">
-        <v>3567</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -47439,13 +47442,13 @@
         <v>3310</v>
       </c>
       <c r="B2217" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C2217" t="s">
         <v>3568</v>
       </c>
-      <c r="C2217" t="s">
+      <c r="D2217" t="s">
         <v>3569</v>
-      </c>
-      <c r="D2217" t="s">
-        <v>3570</v>
       </c>
     </row>
     <row r="2218" spans="1:4">
@@ -47453,13 +47456,13 @@
         <v>3696</v>
       </c>
       <c r="B2218" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C2218" t="s">
         <v>3571</v>
       </c>
-      <c r="C2218" t="s">
+      <c r="D2218" t="s">
         <v>3572</v>
-      </c>
-      <c r="D2218" t="s">
-        <v>3573</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -47467,13 +47470,13 @@
         <v>4240</v>
       </c>
       <c r="B2219" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C2219" t="s">
         <v>3574</v>
       </c>
-      <c r="C2219" t="s">
+      <c r="D2219" t="s">
         <v>3575</v>
-      </c>
-      <c r="D2219" t="s">
-        <v>3576</v>
       </c>
     </row>
     <row r="2220" spans="1:4">
@@ -47481,13 +47484,13 @@
         <v>4484</v>
       </c>
       <c r="B2220" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C2220" t="s">
         <v>3577</v>
       </c>
-      <c r="C2220" t="s">
+      <c r="D2220" t="s">
         <v>3578</v>
-      </c>
-      <c r="D2220" t="s">
-        <v>3579</v>
       </c>
     </row>
     <row r="2221" spans="1:4">
@@ -47495,13 +47498,13 @@
         <v>9374</v>
       </c>
       <c r="B2221" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C2221" t="s">
         <v>3580</v>
       </c>
-      <c r="C2221" t="s">
+      <c r="D2221" t="s">
         <v>3581</v>
-      </c>
-      <c r="D2221" t="s">
-        <v>3582</v>
       </c>
     </row>
     <row r="2222" spans="1:4">
@@ -47509,13 +47512,13 @@
         <v>12046</v>
       </c>
       <c r="B2222" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C2222" t="s">
         <v>3583</v>
       </c>
-      <c r="C2222" t="s">
+      <c r="D2222" t="s">
         <v>3584</v>
-      </c>
-      <c r="D2222" t="s">
-        <v>3585</v>
       </c>
     </row>
     <row r="2223" spans="1:4">
@@ -47523,13 +47526,13 @@
         <v>12052</v>
       </c>
       <c r="B2223" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C2223" t="s">
         <v>3586</v>
       </c>
-      <c r="C2223" t="s">
+      <c r="D2223" t="s">
         <v>3587</v>
-      </c>
-      <c r="D2223" t="s">
-        <v>3588</v>
       </c>
     </row>
     <row r="2224" spans="1:4">
@@ -47537,13 +47540,13 @@
         <v>12059</v>
       </c>
       <c r="B2224" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C2224" t="s">
         <v>3589</v>
       </c>
-      <c r="C2224" t="s">
+      <c r="D2224" t="s">
         <v>3590</v>
-      </c>
-      <c r="D2224" t="s">
-        <v>3591</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -47554,10 +47557,10 @@
         <v>971</v>
       </c>
       <c r="C2225" t="s">
+        <v>3591</v>
+      </c>
+      <c r="D2225" t="s">
         <v>3592</v>
-      </c>
-      <c r="D2225" t="s">
-        <v>3593</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -47565,13 +47568,13 @@
         <v>12088</v>
       </c>
       <c r="B2226" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C2226" t="s">
         <v>3594</v>
       </c>
-      <c r="C2226" t="s">
+      <c r="D2226" t="s">
         <v>3595</v>
-      </c>
-      <c r="D2226" t="s">
-        <v>3596</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -47579,13 +47582,13 @@
         <v>12093</v>
       </c>
       <c r="B2227" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C2227" t="s">
         <v>3597</v>
       </c>
-      <c r="C2227" t="s">
+      <c r="D2227" t="s">
         <v>3598</v>
-      </c>
-      <c r="D2227" t="s">
-        <v>3599</v>
       </c>
     </row>
     <row r="2228" spans="1:4">
@@ -47593,13 +47596,13 @@
         <v>12110</v>
       </c>
       <c r="B2228" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C2228" t="s">
         <v>3600</v>
       </c>
-      <c r="C2228" t="s">
+      <c r="D2228" t="s">
         <v>3601</v>
-      </c>
-      <c r="D2228" t="s">
-        <v>3602</v>
       </c>
     </row>
     <row r="2229" spans="1:4">
@@ -47607,13 +47610,13 @@
         <v>12120</v>
       </c>
       <c r="B2229" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C2229" t="s">
         <v>3603</v>
       </c>
-      <c r="C2229" t="s">
+      <c r="D2229" t="s">
         <v>3604</v>
-      </c>
-      <c r="D2229" t="s">
-        <v>3605</v>
       </c>
     </row>
     <row r="2230" spans="1:4">
@@ -47624,10 +47627,10 @@
         <v>270</v>
       </c>
       <c r="C2230" t="s">
+        <v>3605</v>
+      </c>
+      <c r="D2230" t="s">
         <v>3606</v>
-      </c>
-      <c r="D2230" t="s">
-        <v>3607</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -47635,13 +47638,13 @@
         <v>12122</v>
       </c>
       <c r="B2231" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C2231" t="s">
         <v>3608</v>
       </c>
-      <c r="C2231" t="s">
+      <c r="D2231" t="s">
         <v>3609</v>
-      </c>
-      <c r="D2231" t="s">
-        <v>3610</v>
       </c>
     </row>
     <row r="2232" spans="1:4">
@@ -47649,13 +47652,13 @@
         <v>12125</v>
       </c>
       <c r="B2232" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="C2232" t="s">
+        <v>3610</v>
+      </c>
+      <c r="D2232" t="s">
         <v>3611</v>
-      </c>
-      <c r="D2232" t="s">
-        <v>3612</v>
       </c>
     </row>
     <row r="2233" spans="1:4">
@@ -47663,13 +47666,13 @@
         <v>12127</v>
       </c>
       <c r="B2233" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="C2233" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D2233" t="s">
         <v>3613</v>
-      </c>
-      <c r="D2233" t="s">
-        <v>3614</v>
       </c>
     </row>
     <row r="2234" spans="1:4">
@@ -47677,13 +47680,13 @@
         <v>12131</v>
       </c>
       <c r="B2234" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C2234" t="s">
         <v>3615</v>
       </c>
-      <c r="C2234" t="s">
+      <c r="D2234" t="s">
         <v>3616</v>
-      </c>
-      <c r="D2234" t="s">
-        <v>3617</v>
       </c>
     </row>
     <row r="2235" spans="1:4">
@@ -47691,13 +47694,13 @@
         <v>12132</v>
       </c>
       <c r="B2235" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C2235" t="s">
         <v>3618</v>
       </c>
-      <c r="C2235" t="s">
+      <c r="D2235" t="s">
         <v>3619</v>
-      </c>
-      <c r="D2235" t="s">
-        <v>3620</v>
       </c>
     </row>
     <row r="2236" spans="1:4">
@@ -47705,13 +47708,13 @@
         <v>12133</v>
       </c>
       <c r="B2236" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C2236" t="s">
         <v>3621</v>
       </c>
-      <c r="C2236" t="s">
+      <c r="D2236" t="s">
         <v>3622</v>
-      </c>
-      <c r="D2236" t="s">
-        <v>3623</v>
       </c>
     </row>
     <row r="2237" spans="1:4">
@@ -47719,13 +47722,13 @@
         <v>12134</v>
       </c>
       <c r="B2237" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C2237" t="s">
         <v>3624</v>
       </c>
-      <c r="C2237" t="s">
+      <c r="D2237" t="s">
         <v>3625</v>
-      </c>
-      <c r="D2237" t="s">
-        <v>3626</v>
       </c>
     </row>
     <row r="2238" spans="1:4">
@@ -47733,13 +47736,13 @@
         <v>12138</v>
       </c>
       <c r="B2238" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C2238" t="s">
         <v>3627</v>
       </c>
-      <c r="C2238" t="s">
+      <c r="D2238" t="s">
         <v>3628</v>
-      </c>
-      <c r="D2238" t="s">
-        <v>3629</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -47747,13 +47750,13 @@
         <v>12139</v>
       </c>
       <c r="B2239" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C2239" t="s">
         <v>3630</v>
       </c>
-      <c r="C2239" t="s">
+      <c r="D2239" t="s">
         <v>3631</v>
-      </c>
-      <c r="D2239" t="s">
-        <v>3632</v>
       </c>
     </row>
     <row r="2240" spans="1:4">
@@ -47761,13 +47764,13 @@
         <v>12140</v>
       </c>
       <c r="B2240" t="s">
+        <v>3632</v>
+      </c>
+      <c r="C2240" t="s">
         <v>3633</v>
       </c>
-      <c r="C2240" t="s">
+      <c r="D2240" t="s">
         <v>3634</v>
-      </c>
-      <c r="D2240" t="s">
-        <v>3635</v>
       </c>
     </row>
     <row r="2241" spans="1:4">
@@ -47775,13 +47778,13 @@
         <v>12141</v>
       </c>
       <c r="B2241" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C2241" t="s">
         <v>3636</v>
       </c>
-      <c r="C2241" t="s">
+      <c r="D2241" t="s">
         <v>3637</v>
-      </c>
-      <c r="D2241" t="s">
-        <v>3638</v>
       </c>
     </row>
     <row r="2242" spans="1:4">
@@ -47789,13 +47792,13 @@
         <v>12142</v>
       </c>
       <c r="B2242" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C2242" t="s">
         <v>3639</v>
       </c>
-      <c r="C2242" t="s">
+      <c r="D2242" t="s">
         <v>3640</v>
-      </c>
-      <c r="D2242" t="s">
-        <v>3641</v>
       </c>
     </row>
     <row r="2243" spans="1:4">
@@ -47803,13 +47806,13 @@
         <v>12143</v>
       </c>
       <c r="B2243" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C2243" t="s">
         <v>3642</v>
       </c>
-      <c r="C2243" t="s">
+      <c r="D2243" t="s">
         <v>3643</v>
-      </c>
-      <c r="D2243" t="s">
-        <v>3644</v>
       </c>
     </row>
     <row r="2244" spans="1:4">
@@ -47820,10 +47823,10 @@
         <v>48</v>
       </c>
       <c r="C2244" t="s">
+        <v>3644</v>
+      </c>
+      <c r="D2244" t="s">
         <v>3645</v>
-      </c>
-      <c r="D2244" t="s">
-        <v>3646</v>
       </c>
     </row>
     <row r="2245" spans="1:4">
@@ -47831,13 +47834,13 @@
         <v>12147</v>
       </c>
       <c r="B2245" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C2245" t="s">
         <v>3647</v>
       </c>
-      <c r="C2245" t="s">
+      <c r="D2245" t="s">
         <v>3648</v>
-      </c>
-      <c r="D2245" t="s">
-        <v>3649</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -47845,13 +47848,13 @@
         <v>12148</v>
       </c>
       <c r="B2246" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C2246" t="s">
         <v>3650</v>
       </c>
-      <c r="C2246" t="s">
+      <c r="D2246" t="s">
         <v>3651</v>
-      </c>
-      <c r="D2246" t="s">
-        <v>3652</v>
       </c>
     </row>
     <row r="2247" spans="1:4">
@@ -47862,10 +47865,10 @@
         <v>192</v>
       </c>
       <c r="C2247" t="s">
+        <v>3652</v>
+      </c>
+      <c r="D2247" t="s">
         <v>3653</v>
-      </c>
-      <c r="D2247" t="s">
-        <v>3654</v>
       </c>
     </row>
     <row r="2248" spans="1:4">
@@ -47873,13 +47876,13 @@
         <v>12157</v>
       </c>
       <c r="B2248" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="C2248" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D2248" t="s">
         <v>3655</v>
-      </c>
-      <c r="D2248" t="s">
-        <v>3656</v>
       </c>
     </row>
     <row r="2249" spans="1:4">
@@ -47887,13 +47890,13 @@
         <v>12162</v>
       </c>
       <c r="B2249" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C2249" t="s">
         <v>3657</v>
       </c>
-      <c r="C2249" t="s">
+      <c r="D2249" t="s">
         <v>3658</v>
-      </c>
-      <c r="D2249" t="s">
-        <v>3659</v>
       </c>
     </row>
     <row r="2250" spans="1:4">
@@ -47901,13 +47904,13 @@
         <v>12163</v>
       </c>
       <c r="B2250" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="C2250" t="s">
+        <v>3659</v>
+      </c>
+      <c r="D2250" t="s">
         <v>3660</v>
-      </c>
-      <c r="D2250" t="s">
-        <v>3661</v>
       </c>
     </row>
     <row r="2251" spans="1:4">
@@ -47915,13 +47918,13 @@
         <v>12164</v>
       </c>
       <c r="B2251" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C2251" t="s">
         <v>3662</v>
       </c>
-      <c r="C2251" t="s">
+      <c r="D2251" t="s">
         <v>3663</v>
-      </c>
-      <c r="D2251" t="s">
-        <v>3664</v>
       </c>
     </row>
   </sheetData>
@@ -49164,8 +49167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B80FA02-35DC-4262-8E0F-94FBF297BE41}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49190,7 +49193,7 @@
         <v>3207</v>
       </c>
       <c r="B1" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="C1" t="s">
         <v>3206</v>
@@ -49228,33 +49231,33 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B2" t="s">
-        <v>3514</v>
+        <v>3509</v>
       </c>
       <c r="C2" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="D2">
-        <v>447</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>3550</v>
+        <v>18</v>
       </c>
       <c r="F2" s="34">
-        <v>537.70000000000005</v>
+        <v>493.57</v>
       </c>
       <c r="G2">
-        <v>33.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(D2,coordenadas!A:C,3,0)</f>
-        <v>-3.886088</v>
+        <v>-3.7429477</v>
       </c>
       <c r="I2" t="str">
         <f>VLOOKUP(D2,coordenadas!A:D,4,0)</f>
-        <v>-38.625318</v>
+        <v>-38.5599157</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3333</v>
@@ -49266,40 +49269,40 @@
         <f>VLOOKUP(C2,pesoCaminhao!C:G,5,0)</f>
         <v>1590</v>
       </c>
-      <c r="M2" t="e">
+      <c r="M2" t="str">
         <f>VLOOKUP(D2,horarios!B:G,6,0)</f>
-        <v>#N/A</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B3" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="C3" t="s">
         <v>3198</v>
       </c>
       <c r="D3">
-        <v>631</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F3" s="34">
-        <v>1508.07</v>
+        <v>294.87</v>
       </c>
       <c r="G3">
-        <v>99.7</v>
+        <v>11.3</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(D3,coordenadas!A:C,3,0)</f>
-        <v>-3.819396</v>
+        <v>-3.7440842</v>
       </c>
       <c r="I3" t="str">
         <f>VLOOKUP(D3,coordenadas!A:D,4,0)</f>
-        <v>-38.592429</v>
+        <v>-38.4749343</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3333</v>
@@ -49313,38 +49316,38 @@
       </c>
       <c r="M3" t="str">
         <f>VLOOKUP(D3,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B4" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="C4" t="s">
         <v>3198</v>
       </c>
       <c r="D4">
-        <v>762</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="F4" s="34">
-        <v>1970.6</v>
+        <v>1430.96</v>
       </c>
       <c r="G4">
-        <v>70.599999999999994</v>
+        <v>58.1</v>
       </c>
       <c r="H4" t="str">
         <f>VLOOKUP(D4,coordenadas!A:C,3,0)</f>
-        <v>-3.8119541</v>
+        <v>-3.7560405</v>
       </c>
       <c r="I4" t="str">
         <f>VLOOKUP(D4,coordenadas!A:D,4,0)</f>
-        <v>-38.5972122</v>
+        <v>-38.5114051</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>3333</v>
@@ -49358,38 +49361,38 @@
       </c>
       <c r="M4" t="str">
         <f>VLOOKUP(D4,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B5" t="s">
-        <v>3514</v>
+        <v>3509</v>
       </c>
       <c r="C5" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="D5">
-        <v>815</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F5" s="34">
-        <v>486.9</v>
+        <v>535.54999999999995</v>
       </c>
       <c r="G5">
-        <v>30.2</v>
+        <v>18.2</v>
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(D5,coordenadas!A:C,3,0)</f>
-        <v>-3.8575733</v>
+        <v>-3.7135362</v>
       </c>
       <c r="I5" t="str">
         <f>VLOOKUP(D5,coordenadas!A:D,4,0)</f>
-        <v>-38.645753</v>
+        <v>-38.5885703</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>3333</v>
@@ -49403,38 +49406,38 @@
       </c>
       <c r="M5" t="str">
         <f>VLOOKUP(D5,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B6" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
       <c r="C6" t="s">
-        <v>3193</v>
+        <v>3198</v>
       </c>
       <c r="D6">
-        <v>862</v>
+        <v>663</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F6" s="34">
-        <v>1321.36</v>
+        <v>187.81</v>
       </c>
       <c r="G6">
-        <v>49.2</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="str">
         <f>VLOOKUP(D6,coordenadas!A:C,3,0)</f>
-        <v>-3.7566112</v>
+        <v>-3.77289</v>
       </c>
       <c r="I6" t="str">
         <f>VLOOKUP(D6,coordenadas!A:D,4,0)</f>
-        <v>-38.6024185</v>
+        <v>-38.5882422</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>3333</v>
@@ -49453,33 +49456,33 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B7" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="C7" t="s">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="D7">
-        <v>942</v>
+        <v>815</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F7" s="34">
-        <v>7292.83</v>
+        <v>388.8</v>
       </c>
       <c r="G7">
-        <v>364.3</v>
+        <v>35.9</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(D7,coordenadas!A:C,3,0)</f>
-        <v>-3.7407932</v>
+        <v>-3.8575733</v>
       </c>
       <c r="I7" t="str">
         <f>VLOOKUP(D7,coordenadas!A:D,4,0)</f>
-        <v>-38.516113</v>
+        <v>-38.645753</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>3333</v>
@@ -49498,33 +49501,33 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B8" t="s">
-        <v>3511</v>
+        <v>3664</v>
       </c>
       <c r="C8" t="s">
-        <v>3494</v>
+        <v>3194</v>
       </c>
       <c r="D8">
-        <v>989</v>
+        <v>862</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="F8" s="34">
-        <v>10555.64</v>
+        <v>910.93</v>
       </c>
       <c r="G8">
-        <v>521.9</v>
+        <v>32.5</v>
       </c>
       <c r="H8" t="str">
         <f>VLOOKUP(D8,coordenadas!A:C,3,0)</f>
-        <v>-3.7049139</v>
+        <v>-3.7566112</v>
       </c>
       <c r="I8" t="str">
         <f>VLOOKUP(D8,coordenadas!A:D,4,0)</f>
-        <v>-38.5780082</v>
+        <v>-38.6024185</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>3333</v>
@@ -49538,38 +49541,38 @@
       </c>
       <c r="M8" t="str">
         <f>VLOOKUP(D8,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B9" t="s">
-        <v>3514</v>
+        <v>3509</v>
       </c>
       <c r="C9" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="D9">
-        <v>1011</v>
+        <v>898</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="F9" s="34">
-        <v>5114.25</v>
+        <v>1071.75</v>
       </c>
       <c r="G9">
-        <v>234</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(D9,coordenadas!A:C,3,0)</f>
-        <v>-3.8819005</v>
+        <v>-3.7249377</v>
       </c>
       <c r="I9" t="str">
         <f>VLOOKUP(D9,coordenadas!A:D,4,0)</f>
-        <v>-38.62523</v>
+        <v>-38.5890115</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>3333</v>
@@ -49583,38 +49586,38 @@
       </c>
       <c r="M9" t="str">
         <f>VLOOKUP(D9,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B10" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="C10" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="D10">
-        <v>1058</v>
+        <v>972</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F10" s="34">
-        <v>3903.48</v>
+        <v>147.74</v>
       </c>
       <c r="G10">
-        <v>156.19999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(D10,coordenadas!A:C,3,0)</f>
-        <v>-3.7344387</v>
+        <v>-3.7424091</v>
       </c>
       <c r="I10" t="str">
         <f>VLOOKUP(D10,coordenadas!A:D,4,0)</f>
-        <v>-38.4922603</v>
+        <v>-38.4867581</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>3333</v>
@@ -49628,38 +49631,38 @@
       </c>
       <c r="M10" t="str">
         <f>VLOOKUP(D10,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B11" t="s">
         <v>3511</v>
       </c>
       <c r="C11" t="s">
-        <v>3494</v>
+        <v>3198</v>
       </c>
       <c r="D11">
-        <v>1226</v>
+        <v>1049</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F11" s="34">
-        <v>1010.8</v>
+        <v>3194.24</v>
       </c>
       <c r="G11">
-        <v>68.5</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(D11,coordenadas!A:C,3,0)</f>
-        <v>-3.7123457</v>
+        <v>-3.7955137</v>
       </c>
       <c r="I11" t="str">
         <f>VLOOKUP(D11,coordenadas!A:D,4,0)</f>
-        <v>-38.5589927</v>
+        <v>-38.4901664</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>3333</v>
@@ -49678,33 +49681,33 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B12" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="C12" t="s">
         <v>3197</v>
       </c>
       <c r="D12">
-        <v>1541</v>
+        <v>1142</v>
       </c>
       <c r="E12" t="s">
-        <v>3524</v>
+        <v>182</v>
       </c>
       <c r="F12" s="34">
-        <v>611.29999999999995</v>
+        <v>765.49</v>
       </c>
       <c r="G12">
-        <v>56.3</v>
+        <v>45.4</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(D12,coordenadas!A:C,3,0)</f>
-        <v>-3.87502580</v>
+        <v>-3.846401</v>
       </c>
       <c r="I12" t="str">
         <f>VLOOKUP(D12,coordenadas!A:D,4,0)</f>
-        <v>-38.67051130</v>
+        <v>-38.656205</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>3333</v>
@@ -49723,33 +49726,33 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B13" t="s">
-        <v>3514</v>
+        <v>3664</v>
       </c>
       <c r="C13" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="D13">
-        <v>1875</v>
+        <v>1770</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F13" s="34">
-        <v>1062.4000000000001</v>
+        <v>507.2</v>
       </c>
       <c r="G13">
-        <v>97.4</v>
+        <v>60.6</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(D13,coordenadas!A:C,3,0)</f>
-        <v>-3.8891567</v>
+        <v>-3.7881655</v>
       </c>
       <c r="I13" t="str">
         <f>VLOOKUP(D13,coordenadas!A:D,4,0)</f>
-        <v>-38.6108356</v>
+        <v>-38.6279994</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>3333</v>
@@ -49763,38 +49766,38 @@
       </c>
       <c r="M13" t="str">
         <f>VLOOKUP(D13,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B14" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="C14" t="s">
         <v>3197</v>
       </c>
       <c r="D14">
-        <v>1998</v>
+        <v>1777</v>
       </c>
       <c r="E14" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="F14" s="34">
-        <v>3684</v>
+        <v>350.2</v>
       </c>
       <c r="G14">
-        <v>170.3</v>
+        <v>44.9</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(D14,coordenadas!A:C,3,0)</f>
-        <v>-3.8775392</v>
+        <v>-3.8463687</v>
       </c>
       <c r="I14" t="str">
         <f>VLOOKUP(D14,coordenadas!A:D,4,0)</f>
-        <v>-38.6087159</v>
+        <v>-38.6555481</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>3333</v>
@@ -49808,38 +49811,38 @@
       </c>
       <c r="M14" t="str">
         <f>VLOOKUP(D14,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B15" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
       <c r="C15" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="D15">
-        <v>2368</v>
+        <v>1875</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="F15" s="34">
-        <v>1302.3</v>
+        <v>1836.6</v>
       </c>
       <c r="G15">
-        <v>105.1</v>
+        <v>201.6</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(D15,coordenadas!A:C,3,0)</f>
-        <v>-3.7658197</v>
+        <v>-3.8891567</v>
       </c>
       <c r="I15" t="str">
         <f>VLOOKUP(D15,coordenadas!A:D,4,0)</f>
-        <v>-38.6401005</v>
+        <v>-38.6108356</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>3333</v>
@@ -49858,33 +49861,33 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B16" t="s">
-        <v>3514</v>
+        <v>3510</v>
       </c>
       <c r="C16" t="s">
-        <v>3197</v>
+        <v>3494</v>
       </c>
       <c r="D16">
-        <v>2385</v>
+        <v>2292</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F16" s="34">
-        <v>3067.8</v>
+        <v>1948.4</v>
       </c>
       <c r="G16">
-        <v>115.8</v>
+        <v>344.9</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(D16,coordenadas!A:C,3,0)</f>
-        <v>-3.8898521</v>
+        <v>-3.8142935</v>
       </c>
       <c r="I16" t="str">
         <f>VLOOKUP(D16,coordenadas!A:D,4,0)</f>
-        <v>-38.6171332</v>
+        <v>-38.5831318</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>3333</v>
@@ -49903,33 +49906,33 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B17" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="C17" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="D17">
-        <v>2415</v>
+        <v>2385</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F17" s="34">
-        <v>391</v>
+        <v>2460</v>
       </c>
       <c r="G17">
-        <v>24.7</v>
+        <v>285</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(D17,coordenadas!A:C,3,0)</f>
-        <v>-3.8508378</v>
+        <v>-3.8898521</v>
       </c>
       <c r="I17" t="str">
         <f>VLOOKUP(D17,coordenadas!A:D,4,0)</f>
-        <v>-38.5063457</v>
+        <v>-38.6171332</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>3333</v>
@@ -49948,33 +49951,33 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B18" t="s">
         <v>3510</v>
       </c>
       <c r="C18" t="s">
-        <v>3198</v>
+        <v>3494</v>
       </c>
       <c r="D18">
-        <v>3078</v>
+        <v>2459</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="F18" s="34">
-        <v>772.8</v>
+        <v>344.64</v>
       </c>
       <c r="G18">
-        <v>47.3</v>
+        <v>14.6</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(D18,coordenadas!A:C,3,0)</f>
-        <v>-3.8169208</v>
+        <v>-3.8195737</v>
       </c>
       <c r="I18" t="str">
         <f>VLOOKUP(D18,coordenadas!A:D,4,0)</f>
-        <v>-38.5316105</v>
+        <v>-38.5661298</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>3333</v>
@@ -49993,7 +49996,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B19" t="s">
         <v>3509</v>
@@ -50002,24 +50005,24 @@
         <v>3193</v>
       </c>
       <c r="D19">
-        <v>3542</v>
+        <v>2535</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="F19" s="34">
-        <v>214.8</v>
+        <v>200.6</v>
       </c>
       <c r="G19">
-        <v>7.2</v>
+        <v>23.8</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(D19,coordenadas!A:C,3,0)</f>
-        <v>-3.7591887</v>
+        <v>-3.7328394</v>
       </c>
       <c r="I19" t="str">
         <f>VLOOKUP(D19,coordenadas!A:D,4,0)</f>
-        <v>-38.6294438</v>
+        <v>-38.5998675</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>3333</v>
@@ -50038,33 +50041,33 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B20" t="s">
-        <v>3511</v>
+        <v>3665</v>
       </c>
       <c r="C20" t="s">
-        <v>3494</v>
+        <v>3198</v>
       </c>
       <c r="D20">
-        <v>3584</v>
+        <v>2726</v>
       </c>
       <c r="E20" t="s">
-        <v>468</v>
+        <v>358</v>
       </c>
       <c r="F20" s="34">
-        <v>389.46</v>
+        <v>404.25</v>
       </c>
       <c r="G20">
-        <v>44.1</v>
+        <v>17.5</v>
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(D20,coordenadas!A:C,3,0)</f>
-        <v>-3.726481</v>
+        <v>-3.8143736</v>
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP(D20,coordenadas!A:D,4,0)</f>
-        <v>-38.5888279</v>
+        <v>-38.6120921</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>3333</v>
@@ -50078,38 +50081,38 @@
       </c>
       <c r="M20" t="str">
         <f>VLOOKUP(D20,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B21" t="s">
-        <v>3509</v>
+        <v>3665</v>
       </c>
       <c r="C21" t="s">
-        <v>3193</v>
+        <v>3198</v>
       </c>
       <c r="D21">
-        <v>3715</v>
+        <v>2734</v>
       </c>
       <c r="E21" t="s">
-        <v>485</v>
+        <v>360</v>
       </c>
       <c r="F21" s="34">
-        <v>1222.3</v>
+        <v>916.44</v>
       </c>
       <c r="G21">
-        <v>78.2</v>
+        <v>29.2</v>
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP(D21,coordenadas!A:C,3,0)</f>
-        <v>-3.7667473</v>
+        <v>-3.817788</v>
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP(D21,coordenadas!A:D,4,0)</f>
-        <v>-38.6108829</v>
+        <v>-38.589921</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>3333</v>
@@ -50123,38 +50126,38 @@
       </c>
       <c r="M21" t="str">
         <f>VLOOKUP(D21,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B22" t="s">
-        <v>3509</v>
+        <v>3665</v>
       </c>
       <c r="C22" t="s">
-        <v>3193</v>
+        <v>3198</v>
       </c>
       <c r="D22">
-        <v>4396</v>
+        <v>2990</v>
       </c>
       <c r="E22" t="s">
-        <v>597</v>
+        <v>390</v>
       </c>
       <c r="F22" s="34">
-        <v>600.64</v>
+        <v>449.4</v>
       </c>
       <c r="G22">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(D22,coordenadas!A:C,3,0)</f>
-        <v>-3.7388981</v>
+        <v>-3.7086442</v>
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP(D22,coordenadas!A:D,4,0)</f>
-        <v>-38.6193975</v>
+        <v>-38.563186</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>3333</v>
@@ -50168,38 +50171,38 @@
       </c>
       <c r="M22" t="str">
         <f>VLOOKUP(D22,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B23" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C23" t="s">
-        <v>3194</v>
+        <v>3494</v>
       </c>
       <c r="D23">
-        <v>4522</v>
+        <v>3386</v>
       </c>
       <c r="E23" t="s">
-        <v>612</v>
+        <v>439</v>
       </c>
       <c r="F23" s="34">
-        <v>3889.32</v>
+        <v>839.4</v>
       </c>
       <c r="G23">
-        <v>179.9</v>
+        <v>58.2</v>
       </c>
       <c r="H23" t="str">
         <f>VLOOKUP(D23,coordenadas!A:C,3,0)</f>
-        <v>-3.7354447</v>
+        <v>-3.8246733</v>
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP(D23,coordenadas!A:D,4,0)</f>
-        <v>-38.4816158</v>
+        <v>-38.5192122</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>3333</v>
@@ -50218,33 +50221,33 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B24" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C24" t="s">
-        <v>3194</v>
+        <v>3494</v>
       </c>
       <c r="D24">
-        <v>4677</v>
+        <v>3643</v>
       </c>
       <c r="E24" t="s">
-        <v>636</v>
+        <v>477</v>
       </c>
       <c r="F24" s="34">
-        <v>415.8</v>
+        <v>921.2</v>
       </c>
       <c r="G24">
-        <v>18.899999999999999</v>
+        <v>165.1</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP(D24,coordenadas!A:C,3,0)</f>
-        <v>-3.7567353</v>
+        <v>-3.806077</v>
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP(D24,coordenadas!A:D,4,0)</f>
-        <v>-38.5408141</v>
+        <v>-38.5966382</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>3333</v>
@@ -50263,33 +50266,33 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B25" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="C25" t="s">
-        <v>3198</v>
+        <v>3193</v>
       </c>
       <c r="D25">
-        <v>5192</v>
+        <v>4067</v>
       </c>
       <c r="E25" t="s">
-        <v>692</v>
+        <v>543</v>
       </c>
       <c r="F25" s="34">
-        <v>4303.8</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="G25">
-        <v>162.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP(D25,coordenadas!A:C,3,0)</f>
-        <v>-3.83829143</v>
+        <v>-3.7188623</v>
       </c>
       <c r="I25" t="str">
         <f>VLOOKUP(D25,coordenadas!A:D,4,0)</f>
-        <v>-38.48757653</v>
+        <v>-38.6057626</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>3333</v>
@@ -50303,38 +50306,38 @@
       </c>
       <c r="M25" t="str">
         <f>VLOOKUP(D25,horarios!B:G,6,0)</f>
-        <v>MANHA</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B26" t="s">
         <v>3510</v>
       </c>
       <c r="C26" t="s">
-        <v>3198</v>
+        <v>3494</v>
       </c>
       <c r="D26">
-        <v>9338</v>
+        <v>4888</v>
       </c>
       <c r="E26" t="s">
-        <v>715</v>
+        <v>667</v>
       </c>
       <c r="F26" s="34">
-        <v>420</v>
+        <v>860</v>
       </c>
       <c r="G26">
-        <v>12.5</v>
+        <v>144.4</v>
       </c>
       <c r="H26" t="str">
         <f>VLOOKUP(D26,coordenadas!A:C,3,0)</f>
-        <v>-3.8471058</v>
+        <v>-3.81534018</v>
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP(D26,coordenadas!A:D,4,0)</f>
-        <v>-38.5219824</v>
+        <v>-38.60506827</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>3333</v>
@@ -50353,33 +50356,33 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B27" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="C27" t="s">
-        <v>3494</v>
+        <v>3197</v>
       </c>
       <c r="D27">
-        <v>9339</v>
+        <v>9332</v>
       </c>
       <c r="E27" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F27" s="34">
-        <v>6280.25</v>
+        <v>656.6</v>
       </c>
       <c r="G27">
-        <v>613</v>
+        <v>48.8</v>
       </c>
       <c r="H27" t="str">
         <f>VLOOKUP(D27,coordenadas!A:C,3,0)</f>
-        <v>-3.72013</v>
+        <v>-3.8486247</v>
       </c>
       <c r="I27" t="str">
         <f>VLOOKUP(D27,coordenadas!A:D,4,0)</f>
-        <v>-38.54911</v>
+        <v>-38.614286</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>3333</v>
@@ -50393,38 +50396,38 @@
       </c>
       <c r="M27" t="str">
         <f>VLOOKUP(D27,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B28" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="C28" t="s">
-        <v>3193</v>
+        <v>3494</v>
       </c>
       <c r="D28">
-        <v>9586</v>
+        <v>9347</v>
       </c>
       <c r="E28" t="s">
-        <v>787</v>
+        <v>721</v>
       </c>
       <c r="F28" s="34">
-        <v>710.75</v>
+        <v>6618.72</v>
       </c>
       <c r="G28">
-        <v>49</v>
+        <v>307.60000000000002</v>
       </c>
       <c r="H28" t="str">
         <f>VLOOKUP(D28,coordenadas!A:C,3,0)</f>
-        <v>-3.7807157</v>
+        <v>-3.8795207</v>
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP(D28,coordenadas!A:D,4,0)</f>
-        <v>-38.6223482</v>
+        <v>-38.4613795</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>3333</v>
@@ -50442,33 +50445,33 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B29" t="s">
-        <v>3512</v>
+        <v>3664</v>
       </c>
       <c r="C29" t="s">
         <v>3194</v>
       </c>
       <c r="D29">
-        <v>9597</v>
+        <v>9586</v>
       </c>
       <c r="E29" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F29" s="34">
-        <v>829.9</v>
+        <v>329.82</v>
       </c>
       <c r="G29">
-        <v>40.799999999999997</v>
+        <v>14.1</v>
       </c>
       <c r="H29" t="str">
         <f>VLOOKUP(D29,coordenadas!A:C,3,0)</f>
-        <v>-3.7603291</v>
+        <v>-3.7807157</v>
       </c>
       <c r="I29" t="str">
         <f>VLOOKUP(D29,coordenadas!A:D,4,0)</f>
-        <v>-38.5423981</v>
+        <v>-38.6223482</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>3333</v>
@@ -50482,38 +50485,38 @@
       </c>
       <c r="M29" t="str">
         <f>VLOOKUP(D29,horarios!B:G,6,0)</f>
-        <v>DIURNO</v>
+        <v>MANHA</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B30" t="s">
-        <v>3509</v>
+        <v>3664</v>
       </c>
       <c r="C30" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="D30">
-        <v>9620</v>
+        <v>10745</v>
       </c>
       <c r="E30" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="F30" s="34">
-        <v>398.8</v>
+        <v>230.62</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>6.8</v>
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP(D30,coordenadas!A:C,3,0)</f>
-        <v>-3.7318171</v>
+        <v>-3.7600164</v>
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP(D30,coordenadas!A:D,4,0)</f>
-        <v>-38.7022676</v>
+        <v>-38.6160465</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>3333</v>
@@ -50532,33 +50535,33 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B31" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
       <c r="C31" t="s">
-        <v>3193</v>
+        <v>3198</v>
       </c>
       <c r="D31">
-        <v>12039</v>
+        <v>10978</v>
       </c>
       <c r="E31" t="s">
-        <v>3191</v>
+        <v>855</v>
       </c>
       <c r="F31" s="34">
-        <v>399</v>
+        <v>901.06</v>
       </c>
       <c r="G31">
-        <v>47.1</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="H31" t="str">
         <f>VLOOKUP(D31,coordenadas!A:C,3,0)</f>
-        <v>-3.680505269986350</v>
+        <v>-3.74863598</v>
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP(D31,coordenadas!A:D,4,0)</f>
-        <v>-38.73454749436100</v>
+        <v>-38.51500582</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>3333</v>
@@ -50577,33 +50580,33 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B32" t="s">
-        <v>3512</v>
+        <v>3664</v>
       </c>
       <c r="C32" t="s">
         <v>3194</v>
       </c>
       <c r="D32">
-        <v>12125</v>
+        <v>11412</v>
       </c>
       <c r="E32" t="s">
-        <v>3551</v>
+        <v>932</v>
       </c>
       <c r="F32" s="34">
-        <v>420.6</v>
+        <v>1075.18</v>
       </c>
       <c r="G32">
-        <v>58.3</v>
+        <v>87.4</v>
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP(D32,coordenadas!A:C,3,0)</f>
-        <v>-3.751403</v>
+        <v>-3.75761186</v>
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP(D32,coordenadas!A:D,4,0)</f>
-        <v>-38.544783</v>
+        <v>-38.61031199</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>3333</v>
@@ -50615,40 +50618,40 @@
         <f>VLOOKUP(C32,pesoCaminhao!C:G,5,0)</f>
         <v>1590</v>
       </c>
-      <c r="M32" t="e">
+      <c r="M32" t="str">
         <f>VLOOKUP(D32,horarios!B:G,6,0)</f>
-        <v>#N/A</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B33" t="s">
-        <v>3510</v>
+        <v>3664</v>
       </c>
       <c r="C33" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="D33">
-        <v>12127</v>
+        <v>11651</v>
       </c>
       <c r="E33" t="s">
-        <v>3552</v>
+        <v>966</v>
       </c>
       <c r="F33" s="34">
-        <v>613.6</v>
+        <v>181.6</v>
       </c>
       <c r="G33">
-        <v>37.799999999999997</v>
+        <v>15.6</v>
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP(D33,coordenadas!A:C,3,0)</f>
-        <v>-3.808451</v>
+        <v>-3.76348683</v>
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP(D33,coordenadas!A:D,4,0)</f>
-        <v>-38.544254</v>
+        <v>-38.6404932</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>3333</v>
@@ -50660,40 +50663,40 @@
         <f>VLOOKUP(C33,pesoCaminhao!C:G,5,0)</f>
         <v>1590</v>
       </c>
-      <c r="M33" t="e">
+      <c r="M33" t="str">
         <f>VLOOKUP(D33,horarios!B:G,6,0)</f>
-        <v>#N/A</v>
+        <v>DIURNO</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4">
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="B34" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="C34" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="D34">
-        <v>12163</v>
+        <v>11849</v>
       </c>
       <c r="E34" t="s">
-        <v>3553</v>
+        <v>1011</v>
       </c>
       <c r="F34" s="34">
-        <v>491</v>
+        <v>235.1</v>
       </c>
       <c r="G34">
-        <v>36.799999999999997</v>
+        <v>19.7</v>
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP(D34,coordenadas!A:C,3,0)</f>
-        <v>-3.719591</v>
+        <v>-3.7133513</v>
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP(D34,coordenadas!A:D,4,0)</f>
-        <v>-38.517228</v>
+        <v>-38.6029616</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>3333</v>
@@ -50705,20 +50708,98 @@
         <f>VLOOKUP(C34,pesoCaminhao!C:G,5,0)</f>
         <v>1590</v>
       </c>
-      <c r="M34" t="e">
-        <f>VLOOKUP(D34,horarios!B:G,6,0)</f>
-        <v>#N/A</v>
+      <c r="M34" t="s">
+        <v>3489</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="L35"/>
+      <c r="A35" s="4">
+        <v>45800</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D35">
+        <v>11929</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F35">
+        <v>281.64999999999998</v>
+      </c>
+      <c r="G35">
+        <v>21.1</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP(D35,coordenadas!A:C,3,0)</f>
+        <v>-3.7967961</v>
+      </c>
+      <c r="I35" t="str">
+        <f>VLOOKUP(D35,coordenadas!A:D,4,0)</f>
+        <v>-38.46483618</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="L35" s="5">
+        <f>VLOOKUP(C35,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="M35" t="str">
+        <f>VLOOKUP(D35,horarios!B:G,6,0)</f>
+        <v>DIURNO</v>
+      </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="L36"/>
+      <c r="A36" s="4">
+        <v>45800</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D36">
+        <v>12138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3626</v>
+      </c>
+      <c r="F36">
+        <v>806</v>
+      </c>
+      <c r="G36">
+        <v>54.8</v>
+      </c>
+      <c r="H36" t="str">
+        <f>VLOOKUP(D36,coordenadas!A:C,3,0)</f>
+        <v>-3.866484</v>
+      </c>
+      <c r="I36" t="str">
+        <f>VLOOKUP(D36,coordenadas!A:D,4,0)</f>
+        <v>-38.591203</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="L36" s="5">
+        <f>VLOOKUP(C36,pesoCaminhao!C:G,5,0)</f>
+        <v>1590</v>
+      </c>
+      <c r="M36" t="s">
+        <v>3489</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
       <c r="F37"/>
@@ -59106,7 +59187,7 @@
         <v>4754</v>
       </c>
       <c r="C372" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>3489</v>
@@ -59117,7 +59198,7 @@
         <v>12119</v>
       </c>
       <c r="C373" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>3489</v>
@@ -59128,7 +59209,7 @@
         <v>12123</v>
       </c>
       <c r="C374" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>3489</v>
@@ -59139,7 +59220,7 @@
         <v>12144</v>
       </c>
       <c r="C375" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>3489</v>
@@ -59161,7 +59242,7 @@
         <v>12144</v>
       </c>
       <c r="C377" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>3489</v>
@@ -59172,7 +59253,7 @@
         <v>12126</v>
       </c>
       <c r="C378" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>3489</v>
@@ -59183,7 +59264,7 @@
         <v>12135</v>
       </c>
       <c r="C379" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>3489</v>
@@ -59194,7 +59275,7 @@
         <v>12136</v>
       </c>
       <c r="C380" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>3489</v>
@@ -59205,7 +59286,7 @@
         <v>12137</v>
       </c>
       <c r="C381" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>3489</v>
@@ -59216,7 +59297,7 @@
         <v>1541</v>
       </c>
       <c r="C382" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>3489</v>
@@ -59227,7 +59308,7 @@
         <v>12124</v>
       </c>
       <c r="C383" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>3489</v>
@@ -59238,7 +59319,7 @@
         <v>12158</v>
       </c>
       <c r="C384" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>3489</v>
